--- a/曲げ試験による脆性材料の強度物性測定/Data/1204_測定データ.xlsx
+++ b/曲げ試験による脆性材料の強度物性測定/Data/1204_測定データ.xlsx
@@ -1,30 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.240.30.78\pub3\2024年度\実験2\テーマ7_曲げ試験\1204\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artis\Documents\TohokuUniversity\ExperimentReport2_Fine\曲げ試験による脆性材料の強度物性測定\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AA31B-24BF-46BE-9B14-38B05EC6CCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>破断時の荷重[kN]</t>
     <rPh sb="0" eb="3">
@@ -133,14 +168,146 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>断面二次モーメント</t>
+    <rPh sb="0" eb="2">
+      <t>ダンメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲げ弾性係数</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破断応力[Mpa]</t>
+    <rPh sb="0" eb="2">
+      <t>ハダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>σ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傷ありσ</t>
+    <rPh sb="0" eb="1">
+      <t>キズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 傷ln(σ)</t>
+    <rPh sb="1" eb="2">
+      <t>キズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傷F(σ)</t>
+    <rPh sb="0" eb="1">
+      <t>キズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ln(ln)</t>
+  </si>
+  <si>
+    <t>ln(ln)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傷ln(ln)</t>
+    <rPh sb="0" eb="1">
+      <t>キズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ln(σ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ln(σ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F(σ)</t>
+  </si>
+  <si>
+    <t>F(σ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傷なしσ</t>
+    <rPh sb="0" eb="1">
+      <t>キズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mlnη2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mlnη1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>η1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fσ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F =0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,17 +348,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -200,8 +358,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -218,6 +388,1829 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0362712141739143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1530140603111922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2330182566912873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3571533699287421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5414035676291018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.7019833552815005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9027204557178804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.36651292058166435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4047827616698901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58319808078265956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8486-4036-AA33-6BBC3CDBC99F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="666838624"/>
+        <c:axId val="547756159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="666838624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547756159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="547756159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666838624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5212766295788893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7290668178983126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7783587136074681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8512149691089017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9399478750797119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.7019833552815005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9027204557178804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.36651292058166435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4047827616698901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58319808078265956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8508-4109-B6D0-FCFD291D0285}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462877200"/>
+        <c:axId val="462875280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462877200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462875280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462875280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462877200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92419A92-A26C-44B9-8B5F-48470237E36B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9C6E3F-5834-6139-C56F-7F9F80EFDF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,212 +2509,729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C1"/>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>5.7218749999999999E-2</v>
       </c>
       <c r="C3" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>1.25</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>25.9</v>
       </c>
+      <c r="F3">
+        <f>E3*D3^3/12</f>
+        <v>4.215494791666667</v>
+      </c>
+      <c r="G3">
+        <f>B3/2*(2*15^3+3*30*15^2)/(6*F3*C3)</f>
+        <v>68.784305541062295</v>
+      </c>
+      <c r="I3">
+        <f>B3/2*1000*15*D3/(2*F3)</f>
+        <v>63.625482625482618</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>56.6148441055985</v>
+      </c>
+      <c r="L3">
+        <f>LN(K3)</f>
+        <v>4.0362712141739134</v>
+      </c>
+      <c r="M3">
+        <f>J3/(5+1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N3">
+        <f>LN(LN(1/(1-M3)))</f>
+        <v>-1.7019833552815005</v>
+      </c>
+      <c r="O3">
+        <v>33.827586206896555</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" ref="P3:P7">LN(O3:O7)</f>
+        <v>3.5212766295788893</v>
+      </c>
+      <c r="Q3">
+        <f>J3/(5+1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R3">
+        <f>LN(LN(1/(1-Q3)))</f>
+        <v>-1.7019833552815005</v>
+      </c>
+      <c r="S3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="T3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="U3">
+        <f>EXP(T3/S3)</f>
+        <v>78.993800078583135</v>
+      </c>
+      <c r="V3">
+        <f>ROUND(1- EXP(-((K3/$U$3)^$S$3)), 3)</f>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="W3">
+        <f>EXP((LN(LN(2))+T3)/S3)</f>
+        <v>72.734906539802438</v>
+      </c>
+      <c r="X3">
+        <v>5.56</v>
+      </c>
+      <c r="Y3">
+        <v>21.4</v>
+      </c>
+      <c r="Z3">
+        <f>EXP((LN(LN(2))+Y3)/X3)</f>
+        <v>43.94774318788955</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>8.4375000000000006E-2</v>
       </c>
       <c r="C4" s="2">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1.25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>25.9</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F12" si="0">E4*D4^3/12</f>
+        <v>4.215494791666667</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="1">B4/2*(2*15^3+3*30*15^2)/(6*F4*C4)</f>
+        <v>72.989868775930361</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I12" si="2">B4/2*1000*15*D4/(2*F4)</f>
+        <v>93.822393822393821</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>63.625482625482618</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="3">LN(K4)</f>
+        <v>4.1530140603111922</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="4">J4/(5+1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N7" si="5">LN(LN(1/(1-M4)))</f>
+        <v>-0.9027204557178804</v>
+      </c>
+      <c r="O4">
+        <v>41.640232108317221</v>
+      </c>
+      <c r="P4">
+        <v>3.7290668178983126</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q7" si="6">J4/(5+1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R7" si="7">LN(LN(1/(1-Q4)))</f>
+        <v>-0.9027204557178804</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V7" si="8">ROUND(1- EXP(-((K4/$U$3)^$S$3)), 3)</f>
+        <v>0.318</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>5.7125000000000002E-2</v>
       </c>
       <c r="C5" s="2">
         <v>0.42699999999999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>1.2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>25.9</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.7295999999999996</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>80.708374399826397</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>68.92495173745175</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>68.92495173745175</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>4.2330182566912873</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>-0.36651292058166435</v>
+      </c>
+      <c r="O5">
+        <v>43.744186046511629</v>
+      </c>
+      <c r="P5">
+        <v>3.7783587136074681</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>-0.36651292058166435</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="8"/>
+        <v>0.42099999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>7.03125E-2</v>
       </c>
       <c r="C6" s="4">
         <v>0.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>1.25</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>25.95</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.2236328125</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>74.913294797687868</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>78.034682080924853</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>78.034682080924853</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>4.3571533699287421</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>9.4047827616698901E-2</v>
+      </c>
+      <c r="O6">
+        <v>47.050193050193045</v>
+      </c>
+      <c r="P6">
+        <v>3.8512149691089017</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>9.4047827616698901E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="8"/>
+        <v>0.61199999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>5.5281249999999997E-2</v>
       </c>
       <c r="C7" s="4">
         <v>0.41099999999999998</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>1.3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>26</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4.7601666666666675</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>63.57646727186809</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(G3:G7)</f>
+        <v>72.194462157274998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>56.614844105598536</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>93.822393822393821</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>4.5414035676291018</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.58319808078265956</v>
+      </c>
+      <c r="O7">
+        <v>51.415921179883938</v>
+      </c>
+      <c r="P7">
+        <v>3.9399478750797119</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>0.58319808078265956</v>
+      </c>
+      <c r="V7">
+        <f>ROUND(1- EXP(-((K7/$U$3)^$S$3)), 3)</f>
+        <v>0.88300000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>3.0656249999999999E-2</v>
       </c>
       <c r="C8" s="4">
         <v>0.253</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>1.25</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>26.1</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4.248046875</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>64.17881968106856</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>33.827586206896555</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>3.91875E-2</v>
       </c>
       <c r="C9" s="4">
         <v>0.3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>1.25</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>25.8</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.19921875</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>69.990697674418598</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>43.744186046511629</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>4.253125E-2</v>
       </c>
       <c r="C10" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>1.2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>25.85</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.7224000000000004</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>77.201082852678596</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>51.415921179883938</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>3.7374999999999999E-2</v>
       </c>
       <c r="C11" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>1.25</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>25.85</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4.207356770833333</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>62.072395689416958</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>41.640232108317221</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>4.2312500000000003E-2</v>
       </c>
       <c r="C12" s="4">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>1.25</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>25.9</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4.215494791666667</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>68.229887202696872</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE(G8:G12)</f>
+        <v>68.334576620055913</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>47.050193050193045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>68.784305541062295</v>
+      </c>
+      <c r="C15" s="4">
+        <v>63.625482625482618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6">
+        <v>72.989868775930361</v>
+      </c>
+      <c r="C16" s="4">
+        <v>93.822393822393821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>80.708374399826397</v>
+      </c>
+      <c r="C17" s="4">
+        <v>68.92495173745175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>74.913294797687868</v>
+      </c>
+      <c r="C18" s="4">
+        <v>78.034682080924853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6">
+        <v>63.57646727186809</v>
+      </c>
+      <c r="C19" s="4">
+        <v>56.614844105598536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>64.17881968106856</v>
+      </c>
+      <c r="C20" s="4">
+        <v>33.827586206896555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <v>69.990697674418598</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43.744186046511629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6">
+        <v>77.201082852678596</v>
+      </c>
+      <c r="C22" s="4">
+        <v>51.415921179883938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>62.072395689416958</v>
+      </c>
+      <c r="C23" s="4">
+        <v>41.640232108317221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6">
+        <v>68.229887202696872</v>
+      </c>
+      <c r="C24" s="4">
+        <v>47.050193050193045</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:O7">
+    <sortCondition ref="O3:O7"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
@@ -729,4 +3239,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1723C4F8-A5F0-4393-9309-06F389689EA7}">
+  <dimension ref="B3:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>56.614844105598536</v>
+      </c>
+      <c r="C4">
+        <v>4.0362712141739143</v>
+      </c>
+      <c r="D4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E4">
+        <v>-1.7019833552815005</v>
+      </c>
+      <c r="F4">
+        <v>33.827586206896555</v>
+      </c>
+      <c r="G4">
+        <v>3.5212766295788893</v>
+      </c>
+      <c r="H4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I4">
+        <v>-1.7019833552815005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>63.625482625482618</v>
+      </c>
+      <c r="C5">
+        <v>4.1530140603111922</v>
+      </c>
+      <c r="D5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5">
+        <v>-0.9027204557178804</v>
+      </c>
+      <c r="F5">
+        <v>41.640232108317221</v>
+      </c>
+      <c r="G5">
+        <v>3.7290668178983126</v>
+      </c>
+      <c r="H5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5">
+        <v>-0.9027204557178804</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>68.92495173745175</v>
+      </c>
+      <c r="C6">
+        <v>4.2330182566912873</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>-0.36651292058166435</v>
+      </c>
+      <c r="F6">
+        <v>43.744186046511629</v>
+      </c>
+      <c r="G6">
+        <v>3.7783587136074681</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>-0.36651292058166435</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>78.034682080924853</v>
+      </c>
+      <c r="C7">
+        <v>4.3571533699287421</v>
+      </c>
+      <c r="D7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7">
+        <v>9.4047827616698901E-2</v>
+      </c>
+      <c r="F7">
+        <v>47.050193050193045</v>
+      </c>
+      <c r="G7">
+        <v>3.8512149691089017</v>
+      </c>
+      <c r="H7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I7">
+        <v>9.4047827616698901E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>93.822393822393821</v>
+      </c>
+      <c r="C8">
+        <v>4.5414035676291018</v>
+      </c>
+      <c r="D8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E8">
+        <v>0.58319808078265956</v>
+      </c>
+      <c r="F8">
+        <v>51.415921179883938</v>
+      </c>
+      <c r="G8">
+        <v>3.9399478750797119</v>
+      </c>
+      <c r="H8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I8">
+        <v>0.58319808078265956</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>